--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
   </si>
 </sst>
 </file>
@@ -1633,6 +1639,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1639,23 +1639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    <row r="5"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -162,6 +162,39 @@
   </si>
   <si>
     <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt; ml/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt; Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariblk.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1437,9 @@
         <v>17</v>
       </c>
       <c r="G4"/>
-      <c r="H4"/>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
@@ -1492,6 +1527,27 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7"/>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1624,22 +1680,55 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
